--- a/src/test/resources/SampleCode.xlsx
+++ b/src/test/resources/SampleCode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Febi\NumpyNinja\Projects\SdetNinja\DSAlgo\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DFFE203-937C-4CBD-B40C-DAF802DBC23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD883DB-E417-42EF-A20A-E75304B80E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9737F2AD-6316-4E8B-B622-03520E14E051}"/>
   </bookViews>
@@ -37,12 +37,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Input</t>
   </si>
   <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Empty</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -72,17 +78,23 @@
     <t>Error occurred during submission</t>
   </si>
   <si>
-    <t>Output1</t>
-  </si>
-  <si>
-    <t>Output2</t>
-  </si>
-  <si>
     <t>Element Found
 Not Found</t>
   </si>
   <si>
     <t>Submission Successful</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Invaild</t>
+  </si>
+  <si>
+    <t>RunOutput</t>
+  </si>
+  <si>
+    <t>SubmitOutput</t>
   </si>
 </sst>
 </file>
@@ -437,52 +449,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBB0201-BC58-4E3A-9CD0-3F3FBE4F167B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -512,23 +536,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
